--- a/updatedDataset.xlsx
+++ b/updatedDataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="298">
   <si>
     <t>Product Name</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>price_range</t>
   </si>
   <si>
     <t>Kissan Orange Marmalade Jam</t>
@@ -1262,13 +1265,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,13 +1284,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>180</v>
@@ -1296,15 +1302,18 @@
         <v>0.06</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>85</v>
@@ -1313,15 +1322,18 @@
         <v>0.13</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -1330,15 +1342,18 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>138</v>
@@ -1347,15 +1362,18 @@
         <v>0.17</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>255</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -1364,15 +1382,18 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>255</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1381,15 +1402,18 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1398,15 +1422,18 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1415,15 +1442,18 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -1432,15 +1462,18 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1449,15 +1482,18 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1466,15 +1502,18 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>258</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1483,15 +1522,18 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>258</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1500,15 +1542,18 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1517,15 +1562,18 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -1534,15 +1582,18 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1551,15 +1602,18 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -1568,15 +1622,18 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -1585,15 +1642,18 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1602,15 +1662,18 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1619,15 +1682,18 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>259</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1636,15 +1702,18 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>259</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1653,15 +1722,18 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>259</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1670,15 +1742,18 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>259</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>40</v>
@@ -1687,15 +1762,18 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>258</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -1704,15 +1782,18 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>258</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -1721,15 +1802,18 @@
         <v>0.04</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>258</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>43</v>
@@ -1738,15 +1822,18 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>260</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>14</v>
@@ -1755,15 +1842,18 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -1772,15 +1862,18 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1789,15 +1882,18 @@
         <v>0.02</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>80</v>
@@ -1806,15 +1902,18 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1823,15 +1922,18 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1840,15 +1942,18 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1857,15 +1962,18 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -1874,15 +1982,18 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1891,15 +2002,18 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38">
         <v>75</v>
@@ -1908,15 +2022,18 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>35</v>
@@ -1925,15 +2042,18 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>30</v>
@@ -1942,15 +2062,18 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1959,15 +2082,18 @@
         <v>0.04</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42">
         <v>120</v>
@@ -1976,15 +2102,18 @@
         <v>0.01</v>
       </c>
       <c r="E42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>124</v>
@@ -1993,15 +2122,18 @@
         <v>0.1</v>
       </c>
       <c r="E43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44">
         <v>90</v>
@@ -2010,15 +2142,18 @@
         <v>0.05</v>
       </c>
       <c r="E44" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>95</v>
@@ -2027,15 +2162,18 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>70</v>
@@ -2044,15 +2182,18 @@
         <v>0.08</v>
       </c>
       <c r="E46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C47">
         <v>83</v>
@@ -2061,15 +2202,18 @@
         <v>0.03</v>
       </c>
       <c r="E47" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48">
         <v>73</v>
@@ -2078,15 +2222,18 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49">
         <v>25</v>
@@ -2095,15 +2242,18 @@
         <v>0.13</v>
       </c>
       <c r="E49" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50">
         <v>70</v>
@@ -2112,15 +2262,18 @@
         <v>0.02</v>
       </c>
       <c r="E50" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C51">
         <v>123</v>
@@ -2129,15 +2282,18 @@
         <v>0.06</v>
       </c>
       <c r="E51" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52">
         <v>47</v>
@@ -2146,15 +2302,18 @@
         <v>0.05</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53">
         <v>38</v>
@@ -2163,15 +2322,18 @@
         <v>0.01</v>
       </c>
       <c r="E53" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54">
         <v>148</v>
@@ -2180,15 +2342,18 @@
         <v>0.02</v>
       </c>
       <c r="E54" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55">
         <v>47</v>
@@ -2197,15 +2362,18 @@
         <v>0.06</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56">
         <v>47</v>
@@ -2214,15 +2382,18 @@
         <v>0.01</v>
       </c>
       <c r="E56" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57">
         <v>99</v>
@@ -2231,15 +2402,18 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58">
         <v>40</v>
@@ -2248,15 +2422,18 @@
         <v>0.04</v>
       </c>
       <c r="E58" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>48</v>
@@ -2265,15 +2442,18 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -2282,15 +2462,18 @@
         <v>0.31</v>
       </c>
       <c r="E60" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -2299,15 +2482,18 @@
         <v>0.03</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62">
         <v>39</v>
@@ -2316,15 +2502,18 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63">
         <v>20</v>
@@ -2333,15 +2522,18 @@
         <v>0.1</v>
       </c>
       <c r="E63" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64">
         <v>18</v>
@@ -2350,15 +2542,18 @@
         <v>0.31</v>
       </c>
       <c r="E64" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -2367,15 +2562,18 @@
         <v>0.2</v>
       </c>
       <c r="E65" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -2384,15 +2582,18 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C67">
         <v>10</v>
@@ -2401,15 +2602,18 @@
         <v>0.15</v>
       </c>
       <c r="E67" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68">
         <v>17</v>
@@ -2418,15 +2622,18 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -2435,15 +2642,18 @@
         <v>0.03</v>
       </c>
       <c r="E69" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70">
         <v>39</v>
@@ -2452,15 +2662,18 @@
         <v>0.15</v>
       </c>
       <c r="E70" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71">
         <v>11</v>
@@ -2469,15 +2682,18 @@
         <v>0.08</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72">
         <v>23</v>
@@ -2486,15 +2702,18 @@
         <v>0.1</v>
       </c>
       <c r="E72" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73">
         <v>18</v>
@@ -2503,15 +2722,18 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -2520,15 +2742,18 @@
         <v>0.04</v>
       </c>
       <c r="E74" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C75">
         <v>48</v>
@@ -2537,15 +2762,18 @@
         <v>0.14</v>
       </c>
       <c r="E75" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C76">
         <v>19</v>
@@ -2554,15 +2782,18 @@
         <v>0.1</v>
       </c>
       <c r="E76" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77">
         <v>9</v>
@@ -2571,15 +2802,18 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78">
         <v>15</v>
@@ -2588,15 +2822,18 @@
         <v>0.2</v>
       </c>
       <c r="E78" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -2605,15 +2842,18 @@
         <v>0.1</v>
       </c>
       <c r="E79" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -2622,15 +2862,18 @@
         <v>0.06</v>
       </c>
       <c r="E80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81">
         <v>15</v>
@@ -2639,15 +2882,18 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -2656,15 +2902,18 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E82" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -2673,15 +2922,18 @@
         <v>0.22</v>
       </c>
       <c r="E83" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -2690,15 +2942,18 @@
         <v>0.05</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85">
         <v>19</v>
@@ -2707,15 +2962,18 @@
         <v>0.11</v>
       </c>
       <c r="E85" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C86">
         <v>8</v>
@@ -2724,15 +2982,18 @@
         <v>0.04</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C87">
         <v>24</v>
@@ -2741,15 +3002,18 @@
         <v>0.12</v>
       </c>
       <c r="E87" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -2758,15 +3022,18 @@
         <v>0.22</v>
       </c>
       <c r="E88" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -2775,15 +3042,18 @@
         <v>0.04</v>
       </c>
       <c r="E89" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C90">
         <v>24</v>
@@ -2792,15 +3062,18 @@
         <v>0.05</v>
       </c>
       <c r="E90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C91">
         <v>19</v>
@@ -2809,15 +3082,18 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C92">
         <v>7.5</v>
@@ -2826,15 +3102,18 @@
         <v>0.3</v>
       </c>
       <c r="E92" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -2843,15 +3122,18 @@
         <v>0.03</v>
       </c>
       <c r="E93" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C94">
         <v>29</v>
@@ -2860,15 +3142,18 @@
         <v>0.12</v>
       </c>
       <c r="E94" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C95">
         <v>15</v>
@@ -2877,15 +3162,18 @@
         <v>0.13</v>
       </c>
       <c r="E95" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C96">
         <v>20</v>
@@ -2894,15 +3182,18 @@
         <v>0.2</v>
       </c>
       <c r="E96" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C97">
         <v>12</v>
@@ -2911,15 +3202,18 @@
         <v>0.12</v>
       </c>
       <c r="E97" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C98">
         <v>15</v>
@@ -2928,15 +3222,18 @@
         <v>0.13</v>
       </c>
       <c r="E98" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C99">
         <v>28</v>
@@ -2945,15 +3242,18 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C100">
         <v>10</v>
@@ -2962,15 +3262,18 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C101">
         <v>20</v>
@@ -2979,15 +3282,18 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E101" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C102">
         <v>14</v>
@@ -2996,15 +3302,18 @@
         <v>0.04</v>
       </c>
       <c r="E102" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C103">
         <v>48</v>
@@ -3013,15 +3322,18 @@
         <v>0.04</v>
       </c>
       <c r="E103" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C104">
         <v>48</v>
@@ -3030,15 +3342,18 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E104" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C105">
         <v>14</v>
@@ -3047,15 +3362,18 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C106">
         <v>10</v>
@@ -3064,15 +3382,18 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -3081,15 +3402,18 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C108">
         <v>60</v>
@@ -3098,15 +3422,18 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109">
         <v>100</v>
@@ -3115,15 +3442,18 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C110">
         <v>142</v>
@@ -3132,15 +3462,18 @@
         <v>0.02</v>
       </c>
       <c r="E110" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C111">
         <v>167</v>
@@ -3149,15 +3482,18 @@
         <v>0.02</v>
       </c>
       <c r="E111" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C112">
         <v>157</v>
@@ -3166,15 +3502,18 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E112" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113">
         <v>140</v>
@@ -3183,15 +3522,18 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C114">
         <v>204</v>
@@ -3200,15 +3542,18 @@
         <v>0.03</v>
       </c>
       <c r="E114" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115">
         <v>87</v>
@@ -3217,15 +3562,18 @@
         <v>0.01</v>
       </c>
       <c r="E115" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C116">
         <v>166</v>
@@ -3234,15 +3582,18 @@
         <v>0.02</v>
       </c>
       <c r="E116" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C117">
         <v>54</v>
@@ -3251,15 +3602,18 @@
         <v>0.01</v>
       </c>
       <c r="E117" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C118">
         <v>69</v>
@@ -3268,15 +3622,18 @@
         <v>0.01</v>
       </c>
       <c r="E118" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C119">
         <v>82</v>
@@ -3285,15 +3642,18 @@
         <v>0.01</v>
       </c>
       <c r="E119" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C120">
         <v>225</v>
@@ -3302,15 +3662,18 @@
         <v>0.03</v>
       </c>
       <c r="E120" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C121">
         <v>170</v>
@@ -3319,15 +3682,18 @@
         <v>0.03</v>
       </c>
       <c r="E121" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C122">
         <v>370</v>
@@ -3336,15 +3702,18 @@
         <v>0.04</v>
       </c>
       <c r="E122" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C123">
         <v>115</v>
@@ -3353,15 +3722,18 @@
         <v>0.05</v>
       </c>
       <c r="E123" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C124">
         <v>95</v>
@@ -3370,15 +3742,18 @@
         <v>0.02</v>
       </c>
       <c r="E124" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C125">
         <v>98</v>
@@ -3387,15 +3762,18 @@
         <v>0.03</v>
       </c>
       <c r="E125" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C126">
         <v>78</v>
@@ -3404,15 +3782,18 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C127">
         <v>70</v>
@@ -3421,15 +3802,18 @@
         <v>0.02</v>
       </c>
       <c r="E127" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C128">
         <v>245</v>
@@ -3438,15 +3822,18 @@
         <v>0.01</v>
       </c>
       <c r="E128" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C129">
         <v>138</v>
@@ -3455,15 +3842,18 @@
         <v>0.06</v>
       </c>
       <c r="E129" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C130">
         <v>85</v>
@@ -3472,15 +3862,18 @@
         <v>0.02</v>
       </c>
       <c r="E130" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C131">
         <v>97</v>
@@ -3489,15 +3882,18 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E131" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C132">
         <v>56</v>
@@ -3506,15 +3902,18 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C133">
         <v>77</v>
@@ -3523,15 +3922,18 @@
         <v>0.04</v>
       </c>
       <c r="E133" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C134">
         <v>95</v>
@@ -3540,15 +3942,18 @@
         <v>0.05</v>
       </c>
       <c r="E134" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C135">
         <v>125</v>
@@ -3557,15 +3962,18 @@
         <v>0.11</v>
       </c>
       <c r="E135" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C136">
         <v>42</v>
@@ -3574,15 +3982,18 @@
         <v>0.02</v>
       </c>
       <c r="E136" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C137">
         <v>44</v>
@@ -3591,15 +4002,18 @@
         <v>0.02</v>
       </c>
       <c r="E137" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C138">
         <v>44</v>
@@ -3608,15 +4022,18 @@
         <v>0.02</v>
       </c>
       <c r="E138" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C139">
         <v>58</v>
@@ -3625,15 +4042,18 @@
         <v>0.03</v>
       </c>
       <c r="E139" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C140">
         <v>10.5</v>
@@ -3642,15 +4062,18 @@
         <v>0.05</v>
       </c>
       <c r="E140" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C141">
         <v>17</v>
@@ -3659,15 +4082,18 @@
         <v>0.03</v>
       </c>
       <c r="E141" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C142">
         <v>13.5</v>
@@ -3676,15 +4102,18 @@
         <v>0.02</v>
       </c>
       <c r="E142" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C143">
         <v>39</v>
@@ -3693,15 +4122,18 @@
         <v>0.13</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>268</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -3710,15 +4142,18 @@
         <v>0.13</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>268</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C145">
         <v>70</v>
@@ -3727,15 +4162,18 @@
         <v>0.08</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>268</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C146">
         <v>55</v>
@@ -3744,15 +4182,18 @@
         <v>0.02</v>
       </c>
       <c r="E146" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>269</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C147">
         <v>121</v>
@@ -3761,15 +4202,18 @@
         <v>0.03</v>
       </c>
       <c r="E147" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C148">
         <v>111</v>
@@ -3778,15 +4222,18 @@
         <v>0.02</v>
       </c>
       <c r="E148" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C149">
         <v>65</v>
@@ -3795,15 +4242,18 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C150">
         <v>20</v>
@@ -3812,15 +4262,18 @@
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C151">
         <v>20</v>
@@ -3829,15 +4282,18 @@
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C152">
         <v>58</v>
@@ -3846,15 +4302,18 @@
         <v>0.03</v>
       </c>
       <c r="E152" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C153">
         <v>117</v>
@@ -3863,15 +4322,18 @@
         <v>0.03</v>
       </c>
       <c r="E153" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C154">
         <v>431</v>
@@ -3880,15 +4342,18 @@
         <v>0.06</v>
       </c>
       <c r="E154" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C155">
         <v>105</v>
@@ -3897,15 +4362,18 @@
         <v>0.01</v>
       </c>
       <c r="E155" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C156">
         <v>371</v>
@@ -3914,15 +4382,18 @@
         <v>0.03</v>
       </c>
       <c r="E156" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C157">
         <v>87</v>
@@ -3931,15 +4402,18 @@
         <v>0.01</v>
       </c>
       <c r="E157" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C158">
         <v>341</v>
@@ -3948,15 +4422,18 @@
         <v>0.02</v>
       </c>
       <c r="E158" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C159">
         <v>245</v>
@@ -3965,15 +4442,18 @@
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C160">
         <v>79</v>
@@ -3982,15 +4462,18 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C161">
         <v>400</v>
@@ -3999,15 +4482,18 @@
         <v>0.01</v>
       </c>
       <c r="E161" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>272</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C162">
         <v>141</v>
@@ -4016,15 +4502,18 @@
         <v>0.01</v>
       </c>
       <c r="E162" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>272</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C163">
         <v>39</v>
@@ -4033,15 +4522,18 @@
         <v>0.03</v>
       </c>
       <c r="E163" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>273</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C164">
         <v>94</v>
@@ -4050,15 +4542,18 @@
         <v>0.02</v>
       </c>
       <c r="E164" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>273</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C165">
         <v>70</v>
@@ -4067,15 +4562,18 @@
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>274</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C166">
         <v>25</v>
@@ -4084,15 +4582,18 @@
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C167">
         <v>10</v>
@@ -4101,15 +4602,18 @@
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>273</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C168">
         <v>108</v>
@@ -4118,15 +4622,18 @@
         <v>0.49</v>
       </c>
       <c r="E168" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C169">
         <v>113</v>
@@ -4135,15 +4642,18 @@
         <v>0.02</v>
       </c>
       <c r="E169" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C170">
         <v>118</v>
@@ -4152,15 +4662,18 @@
         <v>0.02</v>
       </c>
       <c r="E170" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>276</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C171">
         <v>83</v>
@@ -4169,15 +4682,18 @@
         <v>0.01</v>
       </c>
       <c r="E171" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>277</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C172">
         <v>283</v>
@@ -4186,15 +4702,18 @@
         <v>0.03</v>
       </c>
       <c r="E172" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>274</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C173">
         <v>77</v>
@@ -4203,15 +4722,18 @@
         <v>0.02</v>
       </c>
       <c r="E173" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C174">
         <v>137</v>
@@ -4220,15 +4742,18 @@
         <v>0.02</v>
       </c>
       <c r="E174" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C175">
         <v>293</v>
@@ -4237,15 +4762,18 @@
         <v>0.01</v>
       </c>
       <c r="E175" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>274</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C176">
         <v>75</v>
@@ -4254,15 +4782,18 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C177">
         <v>29</v>
@@ -4271,15 +4802,18 @@
         <v>0.03</v>
       </c>
       <c r="E177" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>274</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C178">
         <v>69</v>
@@ -4288,15 +4822,18 @@
         <v>0.11</v>
       </c>
       <c r="E178" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>278</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C179">
         <v>49</v>
@@ -4305,15 +4842,18 @@
         <v>0.05</v>
       </c>
       <c r="E179" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>279</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C180">
         <v>76</v>
@@ -4322,15 +4862,18 @@
         <v>0.02</v>
       </c>
       <c r="E180" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>280</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C181">
         <v>80</v>
@@ -4339,15 +4882,18 @@
         <v>0.28</v>
       </c>
       <c r="E181" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C182">
         <v>43</v>
@@ -4356,15 +4902,18 @@
         <v>0.27</v>
       </c>
       <c r="E182" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>281</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C183">
         <v>44</v>
@@ -4373,15 +4922,18 @@
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>281</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C184">
         <v>10</v>
@@ -4390,15 +4942,18 @@
         <v>0.01</v>
       </c>
       <c r="E184" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C185">
         <v>100</v>
@@ -4407,15 +4962,18 @@
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>283</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C186">
         <v>10</v>
@@ -4424,15 +4982,18 @@
         <v>0.04</v>
       </c>
       <c r="E186" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>284</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C187">
         <v>27</v>
@@ -4441,15 +5002,18 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E187" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C188">
         <v>28</v>
@@ -4458,15 +5022,18 @@
         <v>0.04</v>
       </c>
       <c r="E188" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C189">
         <v>24</v>
@@ -4475,15 +5042,18 @@
         <v>0.01</v>
       </c>
       <c r="E189" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C190">
         <v>69</v>
@@ -4492,15 +5062,18 @@
         <v>0.11</v>
       </c>
       <c r="E190" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C191">
         <v>129</v>
@@ -4509,15 +5082,18 @@
         <v>0.03</v>
       </c>
       <c r="E191" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>255</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C192">
         <v>29</v>
@@ -4526,15 +5102,18 @@
         <v>0.03</v>
       </c>
       <c r="E192" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C193">
         <v>68</v>
@@ -4543,15 +5122,18 @@
         <v>0.03</v>
       </c>
       <c r="E193" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C194">
         <v>38</v>
@@ -4560,15 +5142,18 @@
         <v>0.03</v>
       </c>
       <c r="E194" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C195">
         <v>35</v>
@@ -4577,15 +5162,18 @@
         <v>0.03</v>
       </c>
       <c r="E195" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C196">
         <v>45</v>
@@ -4594,15 +5182,18 @@
         <v>0.02</v>
       </c>
       <c r="E196" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C197">
         <v>41</v>
@@ -4611,15 +5202,18 @@
         <v>0.02</v>
       </c>
       <c r="E197" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C198">
         <v>46</v>
@@ -4628,15 +5222,18 @@
         <v>0.02</v>
       </c>
       <c r="E198" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C199">
         <v>42</v>
@@ -4645,15 +5242,18 @@
         <v>0.02</v>
       </c>
       <c r="E199" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C200">
         <v>69</v>
@@ -4662,15 +5262,18 @@
         <v>0.01</v>
       </c>
       <c r="E200" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C201">
         <v>12</v>
@@ -4679,15 +5282,18 @@
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C202">
         <v>27</v>
@@ -4696,15 +5302,18 @@
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C203">
         <v>51</v>
@@ -4713,15 +5322,18 @@
         <v>0.02</v>
       </c>
       <c r="E203" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C204">
         <v>39</v>
@@ -4730,15 +5342,18 @@
         <v>0.03</v>
       </c>
       <c r="E204" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C205">
         <v>42</v>
@@ -4747,15 +5362,18 @@
         <v>0.02</v>
       </c>
       <c r="E205" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C206">
         <v>32</v>
@@ -4764,15 +5382,18 @@
         <v>0.06</v>
       </c>
       <c r="E206" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C207">
         <v>42</v>
@@ -4781,15 +5402,18 @@
         <v>0.02</v>
       </c>
       <c r="E207" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C208">
         <v>5</v>
@@ -4798,15 +5422,18 @@
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C209">
         <v>49</v>
@@ -4815,15 +5442,18 @@
         <v>0.02</v>
       </c>
       <c r="E209" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C210">
         <v>49</v>
@@ -4832,15 +5462,18 @@
         <v>0.02</v>
       </c>
       <c r="E210" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C211">
         <v>120</v>
@@ -4849,15 +5482,18 @@
         <v>0.04</v>
       </c>
       <c r="E211" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>288</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C212">
         <v>87</v>
@@ -4866,15 +5502,18 @@
         <v>0.03</v>
       </c>
       <c r="E212" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>288</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C213">
         <v>50</v>
@@ -4883,15 +5522,18 @@
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C214">
         <v>42</v>
@@ -4900,15 +5542,18 @@
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C215">
         <v>10</v>
@@ -4917,15 +5562,18 @@
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C216">
         <v>10</v>
@@ -4934,15 +5582,18 @@
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C217">
         <v>10</v>
@@ -4951,15 +5602,18 @@
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C218">
         <v>5</v>
@@ -4968,15 +5622,18 @@
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C219">
         <v>5</v>
@@ -4985,15 +5642,18 @@
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C220">
         <v>5</v>
@@ -5002,15 +5662,18 @@
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C221">
         <v>5</v>
@@ -5019,15 +5682,18 @@
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -5036,15 +5702,18 @@
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C223">
         <v>5</v>
@@ -5053,15 +5722,18 @@
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C224">
         <v>5</v>
@@ -5070,15 +5742,18 @@
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C225">
         <v>5</v>
@@ -5087,15 +5762,18 @@
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C226">
         <v>10</v>
@@ -5104,15 +5782,18 @@
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C227">
         <v>5</v>
@@ -5121,15 +5802,18 @@
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C228">
         <v>5</v>
@@ -5138,15 +5822,18 @@
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C229">
         <v>5</v>
@@ -5155,15 +5842,18 @@
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C230">
         <v>5</v>
@@ -5172,15 +5862,18 @@
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C231">
         <v>25</v>
@@ -5189,15 +5882,18 @@
         <v>0.11</v>
       </c>
       <c r="E231" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>290</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C232">
         <v>44</v>
@@ -5206,15 +5902,18 @@
         <v>0.08</v>
       </c>
       <c r="E232" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C233">
         <v>23</v>
@@ -5223,15 +5922,18 @@
         <v>0.04</v>
       </c>
       <c r="E233" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C234">
         <v>24</v>
@@ -5240,15 +5942,18 @@
         <v>0.06</v>
       </c>
       <c r="E234" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C235">
         <v>30</v>
@@ -5257,15 +5962,18 @@
         <v>0.04</v>
       </c>
       <c r="E235" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C236">
         <v>24</v>
@@ -5274,15 +5982,18 @@
         <v>0.05</v>
       </c>
       <c r="E236" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C237">
         <v>200</v>
@@ -5291,15 +6002,18 @@
         <v>0.12</v>
       </c>
       <c r="E237" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C238">
         <v>22</v>
@@ -5308,15 +6022,18 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E238" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C239">
         <v>14</v>
@@ -5325,15 +6042,18 @@
         <v>0.08</v>
       </c>
       <c r="E239" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C240">
         <v>11</v>
@@ -5342,15 +6062,18 @@
         <v>0.2</v>
       </c>
       <c r="E240" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C241">
         <v>16</v>
@@ -5359,15 +6082,18 @@
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C242">
         <v>20</v>
@@ -5376,15 +6102,18 @@
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C243">
         <v>10</v>
@@ -5393,15 +6122,18 @@
         <v>0.08</v>
       </c>
       <c r="E243" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C244">
         <v>23</v>
@@ -5410,15 +6142,18 @@
         <v>0.08</v>
       </c>
       <c r="E244" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C245">
         <v>23</v>
@@ -5427,15 +6162,18 @@
         <v>0.08</v>
       </c>
       <c r="E245" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C246">
         <v>23</v>
@@ -5444,15 +6182,18 @@
         <v>0.2</v>
       </c>
       <c r="E246" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C247">
         <v>16</v>
@@ -5461,15 +6202,18 @@
         <v>0.12</v>
       </c>
       <c r="E247" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C248">
         <v>22</v>
@@ -5478,15 +6222,18 @@
         <v>0.2</v>
       </c>
       <c r="E248" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C249">
         <v>12</v>
@@ -5495,15 +6242,18 @@
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C250">
         <v>14</v>
@@ -5512,15 +6262,18 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E250" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C251">
         <v>59</v>
@@ -5529,15 +6282,18 @@
         <v>0.12</v>
       </c>
       <c r="E251" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>292</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C252">
         <v>50</v>
@@ -5546,15 +6302,18 @@
         <v>0.18</v>
       </c>
       <c r="E252" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>292</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C253">
         <v>40</v>
@@ -5563,15 +6322,18 @@
         <v>0.13</v>
       </c>
       <c r="E253" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>293</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C254">
         <v>55</v>
@@ -5580,15 +6342,18 @@
         <v>0.13</v>
       </c>
       <c r="E254" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>294</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C255">
         <v>33</v>
@@ -5597,15 +6362,18 @@
         <v>0.03</v>
       </c>
       <c r="E255" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>295</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C256">
         <v>13</v>
@@ -5614,15 +6382,18 @@
         <v>0.08</v>
       </c>
       <c r="E256" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>296</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C257">
         <v>23</v>
@@ -5631,15 +6402,18 @@
         <v>0.03</v>
       </c>
       <c r="E257" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>294</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C258">
         <v>29</v>
@@ -5648,15 +6422,18 @@
         <v>0.02</v>
       </c>
       <c r="E258" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>297</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C259">
         <v>44</v>
@@ -5665,7 +6442,10 @@
         <v>0.02</v>
       </c>
       <c r="E259" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
